--- a/auto/new_data/5_經濟數據_china.xlsx
+++ b/auto/new_data/5_經濟數據_china.xlsx
@@ -518,7 +518,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3300</t>
+          <t>3273</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5600,12 +5600,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>7.1</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>-37.7</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>-26.8</t>
         </is>
       </c>
       <c r="E154" t="inlineStr"/>
@@ -5617,7 +5617,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/5_經濟數據_china.xlsx
+++ b/auto/new_data/5_經濟數據_china.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>7.19</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -501,7 +501,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Nov/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -518,12 +518,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3273</t>
+          <t>3452</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3280</t>
+          <t>3471</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Nov/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -654,12 +654,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>0.4</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -671,7 +671,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -688,12 +688,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>-0.3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -705,7 +705,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -773,7 +773,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -790,12 +790,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>95.27</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>81.71</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>91.02</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -807,7 +807,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -824,12 +824,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>1469</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>545</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>392</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -841,7 +841,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -1062,12 +1062,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>50.3</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>51.6</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1853,7 +1853,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Jan/2</t>
+          <t>Jan/24</t>
         </is>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/22</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2070,12 +2070,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>0.4</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.6</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2104,12 +2104,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>-0.3</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.4</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/22</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2308,12 +2308,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>-2.9</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>-2.8</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>-1.8</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2342,12 +2342,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>95.1</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>93.7</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>93.1</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2376,12 +2376,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>98.7</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>101</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>104</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2410,12 +2410,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>2.9</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>3.3</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>2.8</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2495,7 +2495,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2614,12 +2614,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Nov/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2818,12 +2818,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>3261000</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>3316000</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>3288000</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2913,23 +2913,31 @@
           <t>Money</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>one Year MLF Rate</t>
+        </is>
+      </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Year MLF Rate percent</t>
+          <t>percent</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2939,23 +2947,31 @@
           <t>Money</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>fourteen-Day Reverse Repo Rate</t>
+        </is>
+      </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>14-Day</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Reverse Repo Rate percent</t>
+          <t>percent</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2989,7 +3005,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3001,24 +3017,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Loan Prime Rate</t>
+          <t>Loan Prime Rate five-Y</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>5Y</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3.6</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
           <t>3.85</t>
         </is>
       </c>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
@@ -3027,7 +3039,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3061,7 +3073,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3078,12 +3090,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>19.2</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -3095,7 +3107,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3112,12 +3124,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>2518680</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>2501638</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>2492551</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -3129,7 +3141,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3163,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -3163,7 +3175,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3180,12 +3192,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>95.27</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>81.71</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>91.02</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -3197,7 +3209,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3214,12 +3226,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>1469</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>545</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>392</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -3231,7 +3243,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3277,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -3282,12 +3294,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>304</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>309</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -3299,7 +3311,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3316,12 +3328,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>222</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>218</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -3333,7 +3345,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3367,7 +3379,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -3384,12 +3396,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>96.4</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>92.4</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>89.78</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -3401,7 +3413,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3447,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -3469,7 +3481,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -3503,7 +3515,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3549,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -3567,7 +3579,7 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3609,7 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3631,7 +3643,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -3665,7 +3677,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -3699,7 +3711,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3741,7 @@
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3746,12 +3758,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>12.7</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>2.4</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>8.7</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -3763,7 +3775,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3809,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3843,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3865,7 +3877,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3899,7 +3911,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3945,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3967,7 +3979,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3984,12 +3996,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>-2.3</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>0.3</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>0.5</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -4001,7 +4013,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4035,7 +4047,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4081,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -4103,7 +4115,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4149,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -4171,7 +4183,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4205,7 +4217,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -4239,7 +4251,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -4273,7 +4285,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -4307,7 +4319,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -4337,7 +4349,7 @@
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -4363,7 +4375,7 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4409,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4443,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4465,7 +4477,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4511,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4516,12 +4528,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>50.3</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>51.6</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -4533,7 +4545,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4579,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4601,7 +4613,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4635,7 +4647,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4669,7 +4681,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4703,7 +4715,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4749,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4771,7 +4783,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4817,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4851,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4885,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4907,7 +4919,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4953,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4975,7 +4987,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5021,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5043,7 +5055,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5060,12 +5072,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>51.9</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>50.3</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>51.2</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -5077,7 +5089,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5123,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5157,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5179,7 +5191,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5196,12 +5208,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>77100</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>77900</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>82900</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
@@ -5213,7 +5225,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5259,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -5281,7 +5293,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5315,7 +5327,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5349,7 +5361,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -5383,7 +5395,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5429,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -5447,7 +5459,7 @@
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -5481,7 +5493,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Mar/2</t>
+          <t>Mar/24</t>
         </is>
       </c>
     </row>
@@ -5515,7 +5527,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5549,7 +5561,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5583,7 +5595,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5617,7 +5629,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -5651,7 +5663,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5685,7 +5697,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5702,12 +5714,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-5.17</t>
+          <t>-7.38</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>-3.7</t>
+          <t>-5.16</t>
         </is>
       </c>
       <c r="E157" t="inlineStr"/>
@@ -5719,7 +5731,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Mar/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/5_經濟數據_china.xlsx
+++ b/auto/new_data/5_經濟數據_china.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7.19</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -518,12 +518,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3452</t>
+          <t>3425</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3471</t>
+          <t>3439</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -2206,12 +2206,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>0.1</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.3</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2444,12 +2444,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>-0.1</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>-0.2</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2512,12 +2512,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>-0.3</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>-0.1</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>-0.3</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -2750,12 +2750,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>1590</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>900</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>14000</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>37600</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>30300</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2886,12 +2886,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>8.1</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>8.5</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3090,12 +3090,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>19.2</t>
+          <t>126</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -3464,12 +3464,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>580</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>499</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3566,12 +3566,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>4215</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>4250</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>4274</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -3579,7 +3579,7 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Jul/24</t>
         </is>
       </c>
     </row>
@@ -4234,12 +4234,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>1258</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>12113</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>19750</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4268,12 +4268,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>2788</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>18435</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>18892</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4800,12 +4800,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>3050000</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>2809000</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>2453000</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/5_經濟數據_china.xlsx
+++ b/auto/new_data/5_經濟數據_china.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -501,7 +501,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>20/Nov/24 13:23:58</t>
         </is>
       </c>
     </row>
@@ -518,12 +518,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3425</t>
+          <t>3371</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3439</t>
+          <t>3346</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>20/Nov/24 13:23:58</t>
         </is>
       </c>
     </row>
@@ -620,12 +620,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>5.1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -637,7 +637,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -739,7 +739,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -892,12 +892,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>83.6</t>
+          <t>83.4</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>77.1</t>
+          <t>77.4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -1130,12 +1130,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -1708,12 +1708,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>5.1</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>5.3</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2002,12 +2002,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>48.6</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>48.8</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>48.7</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>17.1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>17.6</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>18.8</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3090,12 +3090,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>288</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>173</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -3464,12 +3464,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>963</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>901</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3792,12 +3792,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>-29.8</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>-30.4</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>-31.5</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3826,12 +3826,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>4958</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>4881</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>810</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>800</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>760</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3894,12 +3894,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>3703</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>3699</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>3608</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3928,12 +3928,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>427</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>433</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3962,12 +3962,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>857</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>831</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>839</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4098,12 +4098,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>83.6</t>
+          <t>83.4</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>77.1</t>
+          <t>77.4</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -4562,12 +4562,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>5.3</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>5.4</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>4.5</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4596,12 +4596,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>0.59</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>0.32</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -4613,7 +4613,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4630,12 +4630,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>5.4</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>5.2</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>4.3</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -5174,7 +5174,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -5276,12 +5276,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -5310,12 +5310,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>3.2</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>2.1</t>
         </is>
       </c>
       <c r="E145" t="inlineStr"/>
@@ -5327,7 +5327,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -5510,12 +5510,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-5.7</t>
+          <t>-5.9</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>-5.3</t>
+          <t>-5.8</t>
         </is>
       </c>
       <c r="E151" t="inlineStr"/>
@@ -5527,7 +5527,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -5646,12 +5646,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>-10.3</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>-10.1</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>-10.2</t>
         </is>
       </c>
       <c r="E155" t="inlineStr"/>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -5680,12 +5680,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>67486</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>60240</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>52425</t>
         </is>
       </c>
       <c r="E156" t="inlineStr"/>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/5_經濟數據_china.xlsx
+++ b/auto/new_data/5_經濟數據_china.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -501,7 +501,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>20/Nov/24 13:23:58</t>
+          <t>21/Nov/24 14:23:36</t>
         </is>
       </c>
     </row>
@@ -518,12 +518,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3371</t>
+          <t>3354</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3346</t>
+          <t>3368</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>20/Nov/24 13:23:58</t>
+          <t>21/Nov/24 14:23:36</t>
         </is>
       </c>
     </row>
@@ -1096,12 +1096,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>85.7</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>85.8</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>86</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2648,12 +2648,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>12245</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>12183</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>11947</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2682,12 +2682,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>633357</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>62824</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>63024</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2784,12 +2784,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>447357</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>455051</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>438898</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3596,12 +3596,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>503466</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>512235</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>74890</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -3609,7 +3609,7 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3728,12 +3728,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>158409</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>153660</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>144639</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -3741,7 +3741,7 @@
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4732,12 +4732,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>2706000</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>2502000</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>2221000</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4766,12 +4766,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>2755000</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>2525000</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>2181000</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -4783,7 +4783,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>48.1</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>46</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>48.6</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -4885,7 +4885,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4902,12 +4902,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>99.83</t>
+          <t>99.53</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>99.86</t>
+          <t>99.53</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4936,12 +4936,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>1463000</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>1307000</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>1100000</t>
         </is>
       </c>
       <c r="E134" t="inlineStr"/>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -5038,12 +5038,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>17498</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>16847</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>15763</t>
         </is>
       </c>
       <c r="E137" t="inlineStr"/>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -5140,12 +5140,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>731000</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>802360</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>907420</t>
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -5242,12 +5242,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>85.7</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>85.8</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>86</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
@@ -5259,7 +5259,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/5_經濟數據_china.xlsx
+++ b/auto/new_data/5_經濟數據_china.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>7.31</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>7.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -501,7 +501,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21/Nov/24 14:23:36</t>
+          <t>26/Dec/24 10:02:23</t>
         </is>
       </c>
     </row>
@@ -518,12 +518,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3354</t>
+          <t>3385</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3368</t>
+          <t>3393</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21/Nov/24 14:23:36</t>
+          <t>26/Dec/24 10:02:23</t>
         </is>
       </c>
     </row>
@@ -625,7 +625,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -637,7 +637,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -654,12 +654,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>0.3</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -671,7 +671,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -688,12 +688,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>-0.6</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>-0.3</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -705,7 +705,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -790,12 +790,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>97.44</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>95.27</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>81.71</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -807,7 +807,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -960,12 +960,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>50.3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>50.1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>49.8</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -977,7 +977,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -994,12 +994,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>50.3</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>49.3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -1028,12 +1028,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>50.2</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>50</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -1062,12 +1062,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>52</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>50.3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -1130,12 +1130,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -1776,12 +1776,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>60.8</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>58.6</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>61.4</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2002,12 +2002,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>48.9</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>48.6</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>48.8</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2070,12 +2070,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>0.3</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.4</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2104,12 +2104,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>-0.6</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>-0.3</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2206,12 +2206,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>0.2</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2308,12 +2308,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>-2.5</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>-2.9</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>-2.8</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2342,12 +2342,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>94.8</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>95.1</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>93.7</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2376,12 +2376,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>97.6</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>98.7</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>101</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2410,12 +2410,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>2.9</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>3.3</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2444,12 +2444,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>-0.1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2478,12 +2478,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>-0.1</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>-0.7</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -2495,7 +2495,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>-0.3</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2614,12 +2614,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -2648,12 +2648,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>12418</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>12245</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>12183</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2682,12 +2682,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>633357</t>
+          <t>65090</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>62824</t>
+          <t>63336</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2716,12 +2716,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>309480</t>
+          <t>311877</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>305046</t>
+          <t>309709</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2750,12 +2750,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>500</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>1590</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2784,12 +2784,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>453707</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>447357</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>455051</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2818,12 +2818,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>3265860</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>3261000</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>3316000</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>23400</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>14000</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>37600</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2886,12 +2886,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>7.7</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>7.8</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>8.1</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2988,12 +2988,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>900</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3090,12 +3090,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>80.6</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -3124,12 +3124,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>2522739</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>2518680</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>2501638</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3192,12 +3192,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>97.44</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>95.27</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>81.71</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3294,12 +3294,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>309</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>304</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3328,12 +3328,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>213</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>222</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3396,12 +3396,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>97.1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>96.4</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>92.4</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2262</t>
+          <t>2264</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3566,12 +3566,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>4199</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>4215</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>4250</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -3579,7 +3579,7 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Jul/24</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -3758,12 +3758,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>6.7</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>12.7</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>2.4</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -3775,7 +3775,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3792,12 +3792,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>-27.9</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>-29.8</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>-30.4</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3826,12 +3826,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>5087</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>5016</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>4958</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>840</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>810</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>800</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3894,12 +3894,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>3742</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>3703</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>3699</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>455</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3962,12 +3962,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>857</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>831</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3996,12 +3996,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>-3.9</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>-2.3</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>0.3</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4166,12 +4166,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-705</t>
+          <t>2236</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>-809</t>
+          <t>12495</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4234,12 +4234,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>21922</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>12113</t>
+          <t>15283</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4268,12 +4268,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>19686</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>2788</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>18435</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4375,7 +4375,7 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -4426,12 +4426,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>50.3</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>50.1</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>49.8</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -4443,7 +4443,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4460,12 +4460,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>50.3</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>49.3</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4494,12 +4494,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>50.2</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>50</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4528,12 +4528,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>52</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>50.3</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4562,12 +4562,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>5.4</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>5.3</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>5.4</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4596,12 +4596,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>0.41</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>0.59</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -4613,7 +4613,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4630,12 +4630,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>5.4</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>5.2</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4664,12 +4664,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4732,12 +4732,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>3109000</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>2706000</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>2502000</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4766,12 +4766,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>3001000</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>2755000</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>2525000</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -4783,7 +4783,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4800,12 +4800,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>3316000</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>3050000</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>2809000</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>149</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>50.5</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>48.1</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>46</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -4885,7 +4885,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4902,12 +4902,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>99.53</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>99.53</t>
+          <t>99.93</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -5038,12 +5038,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>16934</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>17498</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>16847</t>
         </is>
       </c>
       <c r="E137" t="inlineStr"/>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -5072,12 +5072,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>52.3</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>51.9</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>50.3</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -5106,12 +5106,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>5868040</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>5228160</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>4652730</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -5123,7 +5123,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -5140,12 +5140,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>749510</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>731000</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>802360</t>
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -5174,12 +5174,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>4.6</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>3.7</t>
         </is>
       </c>
       <c r="E141" t="inlineStr"/>
@@ -5191,7 +5191,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -5208,12 +5208,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>81900</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>77100</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>77900</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -5276,12 +5276,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -5310,12 +5310,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>4.8</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>3.2</t>
         </is>
       </c>
       <c r="E145" t="inlineStr"/>
@@ -5327,7 +5327,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -5446,12 +5446,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>0.84</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>0.9</t>
         </is>
       </c>
       <c r="E149" t="inlineStr"/>
@@ -5459,7 +5459,7 @@
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -5476,12 +5476,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>62.1</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>62.6</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>62.1</t>
         </is>
       </c>
       <c r="E150" t="inlineStr"/>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Mar/24</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -5510,12 +5510,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>-5.7</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>-5.9</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>-5.8</t>
         </is>
       </c>
       <c r="E151" t="inlineStr"/>
@@ -5527,7 +5527,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -5544,7 +5544,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>-0.5</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -5578,12 +5578,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>61227</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>56051</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>49465</t>
         </is>
       </c>
       <c r="E153" t="inlineStr"/>
@@ -5595,7 +5595,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -5612,12 +5612,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>-6.9</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>7.1</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>-37.7</t>
         </is>
       </c>
       <c r="E154" t="inlineStr"/>
@@ -5629,7 +5629,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -5646,12 +5646,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>-10.4</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>-10.3</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>-10.1</t>
         </is>
       </c>
       <c r="E155" t="inlineStr"/>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -5680,12 +5680,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>74871</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>67486</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>60240</t>
         </is>
       </c>
       <c r="E156" t="inlineStr"/>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
